--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,122 +534,122 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N2">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q2">
-        <v>9.491671580419947</v>
+        <v>0.03360368488125</v>
       </c>
       <c r="R2">
-        <v>9.491671580419947</v>
+        <v>0.134414739525</v>
       </c>
       <c r="S2">
-        <v>0.07672506295000459</v>
+        <v>0.0001694960080581708</v>
       </c>
       <c r="T2">
-        <v>0.07672506295000459</v>
+        <v>0.000144775633579503</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.7587998447834</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>2.7587998447834</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.1219626830210029</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.1219626830210029</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N3">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q3">
-        <v>15.08802583917789</v>
+        <v>0.1128745666125</v>
       </c>
       <c r="R3">
-        <v>15.08802583917789</v>
+        <v>0.677247399675</v>
       </c>
       <c r="S3">
-        <v>0.1219626830210029</v>
+        <v>0.000569336027275684</v>
       </c>
       <c r="T3">
-        <v>0.1219626830210029</v>
+        <v>0.0007294506668279691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.49161211072663</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>2.49161211072663</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.1101506869541319</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.1101506869541319</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.4690541859018</v>
+        <v>6.821830500000001</v>
       </c>
       <c r="N4">
-        <v>5.4690541859018</v>
+        <v>13.643661</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9878806392739954</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9832891464421584</v>
       </c>
       <c r="Q4">
-        <v>13.62676164381309</v>
+        <v>11.93982355974375</v>
       </c>
       <c r="R4">
-        <v>13.62676164381309</v>
+        <v>47.759294238975</v>
       </c>
       <c r="S4">
-        <v>0.1101506869541319</v>
+        <v>0.06022412236774269</v>
       </c>
       <c r="T4">
-        <v>0.1101506869541319</v>
+        <v>0.05144065380918659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.45568252250658</v>
+        <v>3.198312</v>
       </c>
       <c r="H5">
-        <v>2.45568252250658</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I5">
-        <v>0.1085622901056098</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J5">
-        <v>0.1085622901056098</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N5">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q5">
-        <v>13.4302607789605</v>
+        <v>0.06140599124400001</v>
       </c>
       <c r="R5">
-        <v>13.4302607789605</v>
+        <v>0.368435947464</v>
       </c>
       <c r="S5">
-        <v>0.1085622901056098</v>
+        <v>0.0003097300317954247</v>
       </c>
       <c r="T5">
-        <v>0.1085622901056098</v>
+        <v>0.0003968355547617917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.902175618163821</v>
+        <v>3.198312</v>
       </c>
       <c r="H6">
-        <v>0.902175618163821</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I6">
-        <v>0.03988392240758237</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J6">
-        <v>0.03988392240758237</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N6">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q6">
-        <v>4.934047340937389</v>
+        <v>0.206262339192</v>
       </c>
       <c r="R6">
-        <v>4.934047340937389</v>
+        <v>1.856361052728</v>
       </c>
       <c r="S6">
-        <v>0.03988392240758237</v>
+        <v>0.001040381232871623</v>
       </c>
       <c r="T6">
-        <v>0.03988392240758237</v>
+        <v>0.001999452206735283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2762389186573</v>
+        <v>3.198312</v>
       </c>
       <c r="H7">
-        <v>12.2762389186573</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I7">
-        <v>0.5427153545616686</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J7">
-        <v>0.5427153545616686</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.4690541859018</v>
+        <v>6.821830500000001</v>
       </c>
       <c r="N7">
-        <v>5.4690541859018</v>
+        <v>13.643661</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9878806392739954</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9832891464421584</v>
       </c>
       <c r="Q7">
-        <v>67.13941584521329</v>
+        <v>21.818342350116</v>
       </c>
       <c r="R7">
-        <v>67.13941584521329</v>
+        <v>130.910054100696</v>
       </c>
       <c r="S7">
-        <v>0.5427153545616686</v>
+        <v>0.1100510835005077</v>
       </c>
       <c r="T7">
-        <v>0.5427153545616686</v>
+        <v>0.1410008016332931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.564619666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.693859</v>
+      </c>
+      <c r="I8">
+        <v>0.0893289006778985</v>
+      </c>
+      <c r="J8">
+        <v>0.1149853408937705</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.0191995</v>
+      </c>
+      <c r="N8">
+        <v>0.038399</v>
+      </c>
+      <c r="O8">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P8">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q8">
+        <v>0.04923941529016667</v>
+      </c>
+      <c r="R8">
+        <v>0.295436491741</v>
+      </c>
+      <c r="S8">
+        <v>0.0002483621769545429</v>
+      </c>
+      <c r="T8">
+        <v>0.0003182091891518613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.564619666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.693859</v>
+      </c>
+      <c r="I9">
+        <v>0.0893289006778985</v>
+      </c>
+      <c r="J9">
+        <v>0.1149853408937705</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.193473</v>
+      </c>
+      <c r="O9">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P9">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q9">
+        <v>0.165394886923</v>
+      </c>
+      <c r="R9">
+        <v>1.488553982307</v>
+      </c>
+      <c r="S9">
+        <v>0.0008342469936183457</v>
+      </c>
+      <c r="T9">
+        <v>0.001603294003822445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.564619666666667</v>
+      </c>
+      <c r="H10">
+        <v>7.693859</v>
+      </c>
+      <c r="I10">
+        <v>0.0893289006778985</v>
+      </c>
+      <c r="J10">
+        <v>0.1149853408937705</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N10">
+        <v>13.643661</v>
+      </c>
+      <c r="O10">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P10">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q10">
+        <v>17.4954006629665</v>
+      </c>
+      <c r="R10">
+        <v>104.972403977799</v>
+      </c>
+      <c r="S10">
+        <v>0.08824629150732562</v>
+      </c>
+      <c r="T10">
+        <v>0.1130638377007962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.636255</v>
+      </c>
+      <c r="H11">
+        <v>7.908765000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.09182404865618671</v>
+      </c>
+      <c r="J11">
+        <v>0.1181971283297135</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0191995</v>
+      </c>
+      <c r="N11">
+        <v>0.038399</v>
+      </c>
+      <c r="O11">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P11">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q11">
+        <v>0.05061477787250001</v>
+      </c>
+      <c r="R11">
+        <v>0.303688667235</v>
+      </c>
+      <c r="S11">
+        <v>0.0002552994657715843</v>
+      </c>
+      <c r="T11">
+        <v>0.0003270974549757957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.636255</v>
+      </c>
+      <c r="H12">
+        <v>7.908765000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.09182404865618671</v>
+      </c>
+      <c r="J12">
+        <v>0.1181971283297135</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.193473</v>
+      </c>
+      <c r="O12">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P12">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q12">
+        <v>0.170014721205</v>
+      </c>
+      <c r="R12">
+        <v>1.530132490845</v>
+      </c>
+      <c r="S12">
+        <v>0.0008575493032149401</v>
+      </c>
+      <c r="T12">
+        <v>0.001648077447499469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.636255</v>
+      </c>
+      <c r="H13">
+        <v>7.908765000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.09182404865618671</v>
+      </c>
+      <c r="J13">
+        <v>0.1181971283297135</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N13">
+        <v>13.643661</v>
+      </c>
+      <c r="O13">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P13">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q13">
+        <v>17.9840847647775</v>
+      </c>
+      <c r="R13">
+        <v>107.904508588665</v>
+      </c>
+      <c r="S13">
+        <v>0.09071119988720018</v>
+      </c>
+      <c r="T13">
+        <v>0.1162219534272382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.092757</v>
+      </c>
+      <c r="H14">
+        <v>3.278271</v>
+      </c>
+      <c r="I14">
+        <v>0.03806208881060012</v>
+      </c>
+      <c r="J14">
+        <v>0.04899402347731637</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0191995</v>
+      </c>
+      <c r="N14">
+        <v>0.038399</v>
+      </c>
+      <c r="O14">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P14">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q14">
+        <v>0.0209803880215</v>
+      </c>
+      <c r="R14">
+        <v>0.125882328129</v>
+      </c>
+      <c r="S14">
+        <v>0.000105824466266791</v>
+      </c>
+      <c r="T14">
+        <v>0.0001355855308409033</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.092757</v>
+      </c>
+      <c r="H15">
+        <v>3.278271</v>
+      </c>
+      <c r="I15">
+        <v>0.03806208881060012</v>
+      </c>
+      <c r="J15">
+        <v>0.04899402347731637</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.193473</v>
+      </c>
+      <c r="O15">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P15">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q15">
+        <v>0.07047299168700001</v>
+      </c>
+      <c r="R15">
+        <v>0.6342569251829999</v>
+      </c>
+      <c r="S15">
+        <v>0.0003554637180140951</v>
+      </c>
+      <c r="T15">
+        <v>0.0006831464206979891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.092757</v>
+      </c>
+      <c r="H16">
+        <v>3.278271</v>
+      </c>
+      <c r="I16">
+        <v>0.03806208881060012</v>
+      </c>
+      <c r="J16">
+        <v>0.04899402347731637</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N16">
+        <v>13.643661</v>
+      </c>
+      <c r="O16">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P16">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q16">
+        <v>7.4546030316885</v>
+      </c>
+      <c r="R16">
+        <v>44.727618190131</v>
+      </c>
+      <c r="S16">
+        <v>0.03760080062631923</v>
+      </c>
+      <c r="T16">
+        <v>0.04817529152577749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.4676725</v>
+      </c>
+      <c r="H17">
+        <v>34.935345</v>
+      </c>
+      <c r="I17">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J17">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.0191995</v>
+      </c>
+      <c r="N17">
+        <v>0.038399</v>
+      </c>
+      <c r="O17">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P17">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q17">
+        <v>0.33537057816375</v>
+      </c>
+      <c r="R17">
+        <v>1.341482312655</v>
+      </c>
+      <c r="S17">
+        <v>0.001691599430830096</v>
+      </c>
+      <c r="T17">
+        <v>0.001444885824550532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.4676725</v>
+      </c>
+      <c r="H18">
+        <v>34.935345</v>
+      </c>
+      <c r="I18">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J18">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.193473</v>
+      </c>
+      <c r="O18">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P18">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q18">
+        <v>1.1265076671975</v>
+      </c>
+      <c r="R18">
+        <v>6.759046003184999</v>
+      </c>
+      <c r="S18">
+        <v>0.0056820718713333</v>
+      </c>
+      <c r="T18">
+        <v>0.007280043624398162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.4676725</v>
+      </c>
+      <c r="H19">
+        <v>34.935345</v>
+      </c>
+      <c r="I19">
+        <v>0.6084208126870634</v>
+      </c>
+      <c r="J19">
+        <v>0.5221115377948153</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N19">
+        <v>13.643661</v>
+      </c>
+      <c r="O19">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P19">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q19">
+        <v>119.1615010245113</v>
+      </c>
+      <c r="R19">
+        <v>476.646004098045</v>
+      </c>
+      <c r="S19">
+        <v>0.6010471413849</v>
+      </c>
+      <c r="T19">
+        <v>0.5133866083458667</v>
       </c>
     </row>
   </sheetData>
